--- a/Tier1.xlsx
+++ b/Tier1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="1580" windowWidth="35920" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Tier 1 Pricing</t>
+  </si>
+  <si>
+    <t>Updated:</t>
+  </si>
+  <si>
+    <t>5PM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -47,13 +79,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,13 +420,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Tier1.xlsx
+++ b/Tier1.xlsx
@@ -27,7 +27,7 @@
     <t>Updated:</t>
   </si>
   <si>
-    <t>5PM</t>
+    <t>9AM</t>
   </si>
 </sst>
 </file>

--- a/Tier1.xlsx
+++ b/Tier1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1580" windowWidth="35920" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="2740" yWindow="2040" windowWidth="29380" windowHeight="17880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>Updated:</t>
   </si>
   <si>
-    <t>9AM</t>
+    <t>5PM</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -445,7 +445,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
